--- a/input/align_student_under30.xlsx
+++ b/input/align_student_under30.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2399C812-08F7-4241-A3FB-9553EA8AF18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB3483-075C-4C65-955D-F46396AD722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
     <sheet name="IT" sheetId="2" r:id="rId2"/>
+    <sheet name="HU" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>propStudentsUnder30</t>
   </si>
@@ -30,6 +31,9 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>HU</t>
   </si>
 </sst>
 </file>
@@ -617,6 +621,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B0EEEB-414D-476F-A260-6832C04460E9}">
   <dimension ref="A1:AO2"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <v>2016</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+      <c r="J1">
+        <v>2019</v>
+      </c>
+      <c r="K1">
+        <v>2020</v>
+      </c>
+      <c r="L1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2022</v>
+      </c>
+      <c r="N1">
+        <v>2023</v>
+      </c>
+      <c r="O1">
+        <v>2024</v>
+      </c>
+      <c r="P1">
+        <v>2025</v>
+      </c>
+      <c r="Q1">
+        <v>2026</v>
+      </c>
+      <c r="R1">
+        <v>2027</v>
+      </c>
+      <c r="S1">
+        <v>2028</v>
+      </c>
+      <c r="T1">
+        <v>2029</v>
+      </c>
+      <c r="U1">
+        <v>2030</v>
+      </c>
+      <c r="V1">
+        <v>2031</v>
+      </c>
+      <c r="W1">
+        <v>2032</v>
+      </c>
+      <c r="X1">
+        <v>2033</v>
+      </c>
+      <c r="Y1">
+        <v>2034</v>
+      </c>
+      <c r="Z1">
+        <v>2035</v>
+      </c>
+      <c r="AA1">
+        <v>2036</v>
+      </c>
+      <c r="AB1">
+        <v>2037</v>
+      </c>
+      <c r="AC1">
+        <v>2038</v>
+      </c>
+      <c r="AD1">
+        <v>2039</v>
+      </c>
+      <c r="AE1">
+        <v>2040</v>
+      </c>
+      <c r="AF1">
+        <v>2041</v>
+      </c>
+      <c r="AG1">
+        <v>2042</v>
+      </c>
+      <c r="AH1">
+        <v>2043</v>
+      </c>
+      <c r="AI1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1">
+        <v>2045</v>
+      </c>
+      <c r="AK1">
+        <v>2046</v>
+      </c>
+      <c r="AL1">
+        <v>2047</v>
+      </c>
+      <c r="AM1">
+        <v>2048</v>
+      </c>
+      <c r="AN1">
+        <v>2049</v>
+      </c>
+      <c r="AO1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
+      <c r="N2">
+        <v>0.5</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>0.5</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+      <c r="V2">
+        <v>0.5</v>
+      </c>
+      <c r="W2">
+        <v>0.5</v>
+      </c>
+      <c r="X2">
+        <v>0.5</v>
+      </c>
+      <c r="Y2">
+        <v>0.5</v>
+      </c>
+      <c r="Z2">
+        <v>0.5</v>
+      </c>
+      <c r="AA2">
+        <v>0.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.5</v>
+      </c>
+      <c r="AC2">
+        <v>0.5</v>
+      </c>
+      <c r="AD2">
+        <v>0.5</v>
+      </c>
+      <c r="AE2">
+        <v>0.5</v>
+      </c>
+      <c r="AF2">
+        <v>0.5</v>
+      </c>
+      <c r="AG2">
+        <v>0.5</v>
+      </c>
+      <c r="AH2">
+        <v>0.5</v>
+      </c>
+      <c r="AI2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ2">
+        <v>0.5</v>
+      </c>
+      <c r="AK2">
+        <v>0.5</v>
+      </c>
+      <c r="AL2">
+        <v>0.5</v>
+      </c>
+      <c r="AM2">
+        <v>0.5</v>
+      </c>
+      <c r="AN2">
+        <v>0.5</v>
+      </c>
+      <c r="AO2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD84C031-D571-4610-A1F4-21E257A5BA1F}">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +1021,7 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0.5</v>

--- a/input/align_student_under30.xlsx
+++ b/input/align_student_under30.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB3483-075C-4C65-955D-F46396AD722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B743C-CE25-4A2E-8889-91CDFD2960C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
     <sheet name="IT" sheetId="2" r:id="rId2"/>
-    <sheet name="HU" sheetId="3" r:id="rId3"/>
+    <sheet name="PL" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
